--- a/templates/dataplant/CIMR/CIMR_-_Sample_preparation.xlsx
+++ b/templates/dataplant/CIMR/CIMR_-_Sample_preparation.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD944EC8-24E2-4C8D-82A5-1865B36AB6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="CIMR-sample" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="CIMR-sample" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -77,9 +81,6 @@
     <t>Sampling</t>
   </si>
   <si>
-    <t>Extraction</t>
-  </si>
-  <si>
     <t>Metabolomics</t>
   </si>
   <si>
@@ -89,9 +90,6 @@
     <t>https://bioregistry.io/NCIT:C25662</t>
   </si>
   <si>
-    <t>https://bioregistry.io/NCIT:C61575</t>
-  </si>
-  <si>
     <t>https://bioregistry.io/NCIT:C49019</t>
   </si>
   <si>
@@ -107,9 +105,6 @@
     <t>"The selection and obtaining of small representative quantities of biological material for the purpose of analysis; also, in biomedical statistics, sampling is the selection and implementation of statistical observations in order to estimate properties of an underlying population; also, in environmental science, the collection of representative specimens analyzed to characterize site conditions." []</t>
   </si>
   <si>
-    <t>"The act of pulling out, including the process of obtaining something from a mixture or compound by chemical or physical or mechanical means." []</t>
-  </si>
-  <si>
     <t>"Metabolomics is the study of the biological metabolic profile of a cellular specimen in a specific environment at an isolated timepoint. This discipline depicts the physiological states of cells and organisms by focusing on carbohydrates, lipids, and other metabolites. Several analytical techniques are utilized to quantify the metabolic content of specimens such as mass spectrometry and electrophoretic applications." []</t>
   </si>
   <si>
@@ -339,19 +334,25 @@
   </si>
   <si>
     <t>- 20 °C freezer, 1 week</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,8 +395,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AO2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AO2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:AO2">
+  <autoFilter ref="A1:AO2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -439,47 +440,47 @@
     <filterColumn colId="40" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="41">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [replicate]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (EFO:0000683)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (EFO:0000683)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [metabolism quenching method]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (DPBO:0000010)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (DPBO:0000010)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [sample wash method]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:0000170)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:0000170)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [sampling time measurement datum]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (OBI:0001508)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (OBI:0001508)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [sample storage]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:0000011)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:0000011)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [Drying Method]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (NCIT:C112923)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (NCIT:C112923)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [grinding]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (CHMO:0001652)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (CHMO:0001652)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Parameter [cell lysis]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (OBI:0302894)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (OBI:0302894)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Parameter [Specimen Relocation]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (NCIT:C164367)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (NCIT:C164367)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [Method of extraction (attribute)]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (SNOMED:260707002)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (SNOMED:260707002)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [concentration adjustment]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Term Source REF (DPBO:0000171)" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Accession Number (DPBO:0000171)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Parameter [extract cleanup]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (DPBO:0000172)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (DPBO:0000172)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [extract storage]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Term Source REF (DPBO:0000173)" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Accession Number (DPBO:0000173)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [replicate]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (EFO:0000683)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (EFO:0000683)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [metabolism quenching method]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (DPBO:0000010)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (DPBO:0000010)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [sample wash method]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (DPBO:0000170)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (DPBO:0000170)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [sampling time measurement datum]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (OBI:0001508)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (OBI:0001508)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Parameter [sample storage]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:0000011)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:0000011)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Parameter [Drying Method]"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (NCIT:C112923)"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (NCIT:C112923)"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Parameter [grinding]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (CHMO:0001652)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (CHMO:0001652)"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Parameter [cell lysis]"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (OBI:0302894)"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (OBI:0302894)"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Parameter [Specimen Relocation]"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (NCIT:C164367)"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (NCIT:C164367)"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Parameter [Method of extraction (attribute)]"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (SNOMED:260707002)"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (SNOMED:260707002)"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Parameter [concentration adjustment]"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (DPBO:0000171)"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (DPBO:0000171)"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Parameter [extract cleanup]"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Term Source REF (DPBO:0000172)"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Term Accession Number (DPBO:0000172)"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Parameter [extract storage]"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Term Source REF (DPBO:0000173)"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Term Accession Number (DPBO:0000173)"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -781,16 +782,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -798,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -806,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -814,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -822,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -830,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -838,32 +844,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -874,404 +880,398 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>67</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>70</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>71</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>72</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>82</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>88</v>
       </c>
-      <c r="AM1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN1" t="s">
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
         <v>96</v>
       </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="R2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
         <v>97</v>
       </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="O2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="X2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" t="s">
         <v>99</v>
       </c>
-      <c r="R2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AA2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AD2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" t="s">
         <v>101</v>
       </c>
-      <c r="X2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AJ2" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AK2" t="s">
         <v>104</v>
       </c>
-      <c r="AG2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>108</v>
-      </c>
       <c r="AM2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/templates/dataplant/CIMR/CIMR_-_Sample_preparation.xlsx
+++ b/templates/dataplant/CIMR/CIMR_-_Sample_preparation.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD944EC8-24E2-4C8D-82A5-1865B36AB6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
-    <sheet name="CIMR-sample" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="CIMR-sample" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -81,6 +77,9 @@
     <t>Sampling</t>
   </si>
   <si>
+    <t>extraction</t>
+  </si>
+  <si>
     <t>Metabolomics</t>
   </si>
   <si>
@@ -90,6 +89,9 @@
     <t>https://bioregistry.io/NCIT:C25662</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
+  </si>
+  <si>
     <t>https://bioregistry.io/NCIT:C49019</t>
   </si>
   <si>
@@ -300,7 +302,7 @@
     <t>roots washed with water</t>
   </si>
   <si>
-    <t>15.04.2025, 12 pm to 1 pm</t>
+    <t>2025-04-15, 12 pm to 1 pm</t>
   </si>
   <si>
     <t>-80 °C freezer, 1 week</t>
@@ -334,25 +336,19 @@
   </si>
   <si>
     <t>- 20 °C freezer, 1 week</t>
-  </si>
-  <si>
-    <t>extraction</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,8 +391,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:AO2">
-  <autoFilter ref="A1:AO2" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AO2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AO2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -440,47 +436,47 @@
     <filterColumn colId="40" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [replicate]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (EFO:0000683)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (EFO:0000683)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [metabolism quenching method]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (DPBO:0000010)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (DPBO:0000010)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [sample wash method]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (DPBO:0000170)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (DPBO:0000170)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [sampling time measurement datum]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (OBI:0001508)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (OBI:0001508)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Parameter [sample storage]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:0000011)"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:0000011)"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Parameter [Drying Method]"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (NCIT:C112923)"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (NCIT:C112923)"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Parameter [grinding]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (CHMO:0001652)"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (CHMO:0001652)"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Parameter [cell lysis]"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (OBI:0302894)"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (OBI:0302894)"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Parameter [Specimen Relocation]"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (NCIT:C164367)"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (NCIT:C164367)"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Parameter [Method of extraction (attribute)]"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (SNOMED:260707002)"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (SNOMED:260707002)"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Parameter [concentration adjustment]"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (DPBO:0000171)"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (DPBO:0000171)"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Parameter [extract cleanup]"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Term Source REF (DPBO:0000172)"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Term Accession Number (DPBO:0000172)"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Parameter [extract storage]"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Term Source REF (DPBO:0000173)"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Term Accession Number (DPBO:0000173)"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Output [Sample Name]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Parameter [replicate]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (EFO:0000683)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (EFO:0000683)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [metabolism quenching method]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (DPBO:0000010)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (DPBO:0000010)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Parameter [sample wash method]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (DPBO:0000170)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (DPBO:0000170)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [sampling time measurement datum]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (OBI:0001508)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (OBI:0001508)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [sample storage]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:0000011)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:0000011)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Parameter [Drying Method]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (NCIT:C112923)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (NCIT:C112923)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [grinding]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (CHMO:0001652)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (CHMO:0001652)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Parameter [cell lysis]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (OBI:0302894)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (OBI:0302894)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Parameter [Specimen Relocation]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (NCIT:C164367)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (NCIT:C164367)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Parameter [Method of extraction (attribute)]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (SNOMED:260707002)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (SNOMED:260707002)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Parameter [concentration adjustment]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Term Source REF (DPBO:0000171)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Accession Number (DPBO:0000171)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Parameter [extract cleanup]" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Term Source REF (DPBO:0000172)" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Accession Number (DPBO:0000172)" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Parameter [extract storage]" totalsRowFunction="none"/>
+    <tableColumn id="39" name="Term Source REF (DPBO:0000173)" totalsRowFunction="none"/>
+    <tableColumn id="40" name="Term Accession Number (DPBO:0000173)" totalsRowFunction="none"/>
+    <tableColumn id="41" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -782,21 +778,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -804,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -812,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -820,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -828,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -836,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -844,32 +835,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -880,398 +871,395 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AM1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AN1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AO1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AD2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AL2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AN2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
